--- a/factor description.xlsx
+++ b/factor description.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Short Name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>PMI</t>
   </si>
   <si>
-    <t>Expected GDP Growth</t>
-  </si>
-  <si>
     <t>National Debt/GDP Ratio</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Put/Call Ratio</t>
   </si>
   <si>
-    <t>Short Interests</t>
-  </si>
-  <si>
     <t>Fund Flow</t>
   </si>
   <si>
@@ -151,6 +145,18 @@
   </si>
   <si>
     <t>Forward Return (one month, 21-trading day)</t>
+  </si>
+  <si>
+    <t>mkt_cap</t>
+  </si>
+  <si>
+    <t>Market Capitalization</t>
+  </si>
+  <si>
+    <t>QoQ GDP Growth</t>
+  </si>
+  <si>
+    <t>Short Interest</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -650,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -661,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -672,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -683,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -694,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -705,15 +711,23 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/factor description.xlsx
+++ b/factor description.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Short Name</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Short Interest</t>
+  </si>
+  <si>
+    <t>short_int_ratio</t>
+  </si>
+  <si>
+    <t>Short Interest/Market Capitalization</t>
   </si>
 </sst>
 </file>
@@ -495,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -697,10 +703,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -708,25 +714,36 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
